--- a/PPA2/ProjectValCSVs/PPA_test_project_sr51riverXing_01132020_0805.xlsx
+++ b/PPA2/ProjectValCSVs/PPA_test_project_sr51riverXing_01132020_0805.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" state="visible" r:id="rId1"/>
@@ -631,7 +631,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>DU_TOT</v>
+                  <v>pct_roadmi_bikeways</v>
                 </pt>
               </strCache>
             </strRef>
@@ -688,18 +688,13 @@
             <showLeaderLines val="0"/>
           </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>import!$B$1:$C$1</f>
-              <strCache>
+              <numCache>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
-                <pt idx="0">
-                  <v>projval_2016</v>
-                </pt>
-                <pt idx="1">
-                  <v>projval_2040</v>
-                </pt>
-              </strCache>
-            </strRef>
+              </numCache>
+            </numRef>
           </cat>
           <val>
             <numRef>
@@ -707,12 +702,6 @@
               <numCache>
                 <formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</formatCode>
                 <ptCount val="2"/>
-                <pt idx="0">
-                  <v>8057</v>
-                </pt>
-                <pt idx="1">
-                  <v>14977.31786213</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -726,7 +715,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>EMPTOT</v>
+                  <v>Project's use of existing assets</v>
                 </pt>
               </strCache>
             </strRef>
@@ -783,18 +772,13 @@
             <showLeaderLines val="0"/>
           </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>import!$B$1:$C$1</f>
-              <strCache>
+              <numCache>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
-                <pt idx="0">
-                  <v>projval_2016</v>
-                </pt>
-                <pt idx="1">
-                  <v>projval_2040</v>
-                </pt>
-              </strCache>
-            </strRef>
+              </numCache>
+            </numRef>
           </cat>
           <val>
             <numRef>
@@ -802,12 +786,6 @@
               <numCache>
                 <formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</formatCode>
                 <ptCount val="2"/>
-                <pt idx="0">
-                  <v>83638.10999999969</v>
-                </pt>
-                <pt idx="1">
-                  <v>89060.1499999997</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -1055,7 +1033,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>PCT_BIKEPED_COLLISNS</v>
+                  <v>BIKEPED_COLLISNS_PER_CLMILE</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1112,21 +1090,13 @@
             <showLeaderLines val="0"/>
           </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>(import!$B$1,import!$D$1,import!$E$1)</f>
-              <strCache>
+              <numCache>
+                <formatCode>General</formatCode>
                 <ptCount val="3"/>
-                <pt idx="0">
-                  <v>projval_2016</v>
-                </pt>
-                <pt idx="1">
-                  <v>Urban core_2016</v>
-                </pt>
-                <pt idx="2">
-                  <v>REGION_2016</v>
-                </pt>
-              </strCache>
-            </strRef>
+              </numCache>
+            </numRef>
           </cat>
           <val>
             <numRef>
@@ -1134,15 +1104,6 @@
               <numCache>
                 <formatCode>0%</formatCode>
                 <ptCount val="3"/>
-                <pt idx="0">
-                  <v>0.34090909090909</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.182213306586425</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.122191930207197</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -1156,7 +1117,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>PCT_FATAL_COLLISNS</v>
+                  <v>PCT_BIKEPED_COLLISNS</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1213,21 +1174,13 @@
             <showLeaderLines val="0"/>
           </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>(import!$B$1,import!$D$1,import!$E$1)</f>
-              <strCache>
+              <numCache>
+                <formatCode>General</formatCode>
                 <ptCount val="3"/>
-                <pt idx="0">
-                  <v>projval_2016</v>
-                </pt>
-                <pt idx="1">
-                  <v>Urban core_2016</v>
-                </pt>
-                <pt idx="2">
-                  <v>REGION_2016</v>
-                </pt>
-              </strCache>
-            </strRef>
+              </numCache>
+            </numRef>
           </cat>
           <val>
             <numRef>
@@ -1235,15 +1188,6 @@
               <numCache>
                 <formatCode>0%</formatCode>
                 <ptCount val="3"/>
-                <pt idx="0">
-                  <v>0.02272727272727273</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.007355399531929121</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.02022900763358779</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -1606,18 +1550,6 @@
               <numCache>
                 <formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</formatCode>
                 <ptCount val="4"/>
-                <pt idx="0">
-                  <v>92854.56355555551</v>
-                </pt>
-                <pt idx="1">
-                  <v>207146.584518518</v>
-                </pt>
-                <pt idx="2">
-                  <v>757689.541148148</v>
-                </pt>
-                <pt idx="3">
-                  <v>191657.224259259</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -1661,18 +1593,6 @@
               <numCache>
                 <formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</formatCode>
                 <ptCount val="4"/>
-                <pt idx="0">
-                  <v>64913.7025612238</v>
-                </pt>
-                <pt idx="1">
-                  <v>213458.712808663</v>
-                </pt>
-                <pt idx="2">
-                  <v>775596.880729279</v>
-                </pt>
-                <pt idx="3">
-                  <v>163632.287794987</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -1716,18 +1636,6 @@
               <numCache>
                 <formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</formatCode>
                 <ptCount val="4"/>
-                <pt idx="0">
-                  <v>3842.41087771936</v>
-                </pt>
-                <pt idx="1">
-                  <v>37354.0237093426</v>
-                </pt>
-                <pt idx="2">
-                  <v>475047.245696114</v>
-                </pt>
-                <pt idx="3">
-                  <v>22213.1935470746</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -2293,8 +2201,8 @@
   </sheetPr>
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2335,11 +2243,6 @@
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>REGION_2040</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>REGION_2040</t>
         </is>
@@ -5251,7 +5154,7 @@
   </sheetPr>
   <dimension ref="B3:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScale="60" zoomScaleNormal="100">
+    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScale="60" zoomScaleNormal="100">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
